--- a/data/pca/factorExposure/factorExposure_2018-10-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03887675542529524</v>
+        <v>-0.03492339938666991</v>
       </c>
       <c r="C2">
-        <v>0.05134344372246043</v>
+        <v>0.006889380556743353</v>
       </c>
       <c r="D2">
-        <v>-0.03131404002713842</v>
+        <v>0.01025153927003627</v>
       </c>
       <c r="E2">
-        <v>0.05707305158818256</v>
+        <v>-0.01555305266568115</v>
       </c>
       <c r="F2">
-        <v>-0.1342894610641433</v>
+        <v>-0.02704240197662022</v>
       </c>
       <c r="G2">
-        <v>0.1194556894867044</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.07502536995112337</v>
+      </c>
+      <c r="H2">
+        <v>0.01792789756539901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.132735209074131</v>
+        <v>-0.08542272808891441</v>
       </c>
       <c r="C3">
-        <v>0.01243555863291543</v>
+        <v>-0.03358813207589646</v>
       </c>
       <c r="D3">
-        <v>-0.02531306573161399</v>
+        <v>0.02591496449974456</v>
       </c>
       <c r="E3">
-        <v>0.07852517138512895</v>
+        <v>-0.009314429321572316</v>
       </c>
       <c r="F3">
-        <v>-0.3554108612045318</v>
+        <v>0.001009908088675655</v>
       </c>
       <c r="G3">
-        <v>0.2640674012649303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.25882641397594</v>
+      </c>
+      <c r="H3">
+        <v>0.03429831269477317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04668039360182763</v>
+        <v>-0.04654936240718138</v>
       </c>
       <c r="C4">
-        <v>0.03506679430680151</v>
+        <v>-0.005127443652205361</v>
       </c>
       <c r="D4">
-        <v>0.006620890851660882</v>
+        <v>0.02377453910407099</v>
       </c>
       <c r="E4">
-        <v>0.06862188960123013</v>
+        <v>0.01972771200240499</v>
       </c>
       <c r="F4">
-        <v>-0.0646691377426007</v>
+        <v>-0.06305049620343588</v>
       </c>
       <c r="G4">
-        <v>0.06472332652607345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04375700733647771</v>
+      </c>
+      <c r="H4">
+        <v>0.0283292231590597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009921090371967744</v>
+        <v>-0.03114831437350592</v>
       </c>
       <c r="C6">
-        <v>0.00118329783412467</v>
+        <v>-0.003536119444020658</v>
       </c>
       <c r="D6">
-        <v>-0.00981938740262573</v>
+        <v>0.03125323211970292</v>
       </c>
       <c r="E6">
-        <v>0.007575343427052563</v>
+        <v>0.002955908144155302</v>
       </c>
       <c r="F6">
-        <v>-0.01296405929258634</v>
+        <v>-0.03974011516587043</v>
       </c>
       <c r="G6">
-        <v>-0.01499261456456712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.00933510889190978</v>
+      </c>
+      <c r="H6">
+        <v>0.05109160780818836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02581631311096211</v>
+        <v>-0.02228166350047355</v>
       </c>
       <c r="C7">
-        <v>0.0188412265620519</v>
+        <v>-0.002415670587925576</v>
       </c>
       <c r="D7">
-        <v>-0.02526869706761685</v>
+        <v>0.01793813414619537</v>
       </c>
       <c r="E7">
-        <v>0.04080542747966492</v>
+        <v>0.03496480206574437</v>
       </c>
       <c r="F7">
-        <v>-0.0692354719729612</v>
+        <v>-0.02642777491270863</v>
       </c>
       <c r="G7">
-        <v>0.06025946564690857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03183782214377774</v>
+      </c>
+      <c r="H7">
+        <v>0.01849062927844426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008130284792187982</v>
+        <v>-0.001037436527402414</v>
       </c>
       <c r="C8">
-        <v>0.007670359178159935</v>
+        <v>-0.0005389158594350096</v>
       </c>
       <c r="D8">
-        <v>0.008480344970922945</v>
+        <v>0.01571841798506741</v>
       </c>
       <c r="E8">
-        <v>0.07091255946540552</v>
+        <v>0.01221627441420817</v>
       </c>
       <c r="F8">
-        <v>-0.09129210726828405</v>
+        <v>-0.02794845224319529</v>
       </c>
       <c r="G8">
-        <v>0.06983299490227196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04891216567322848</v>
+      </c>
+      <c r="H8">
+        <v>0.01016102194857879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03701359095989008</v>
+        <v>-0.03671025349355797</v>
       </c>
       <c r="C9">
-        <v>0.02809869758827673</v>
+        <v>-0.007128735612319075</v>
       </c>
       <c r="D9">
-        <v>0.02243566132621878</v>
+        <v>0.02044650203696908</v>
       </c>
       <c r="E9">
-        <v>0.06909662960571288</v>
+        <v>0.01883460109067313</v>
       </c>
       <c r="F9">
-        <v>-0.07456599170103204</v>
+        <v>-0.04005635095264556</v>
       </c>
       <c r="G9">
-        <v>0.04430300433717196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06052212684714379</v>
+      </c>
+      <c r="H9">
+        <v>0.03079413129018331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05134224402535138</v>
+        <v>-0.07410935907185913</v>
       </c>
       <c r="C10">
-        <v>0.05674258810843789</v>
+        <v>-0.04071482030769302</v>
       </c>
       <c r="D10">
-        <v>0.01488399332464253</v>
+        <v>-0.1453591304392388</v>
       </c>
       <c r="E10">
-        <v>-0.1196476442619768</v>
+        <v>-0.01237847993627342</v>
       </c>
       <c r="F10">
-        <v>-0.06199774289152177</v>
+        <v>0.0893993698704082</v>
       </c>
       <c r="G10">
-        <v>-0.007533948586153375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03691716478806541</v>
+      </c>
+      <c r="H10">
+        <v>0.00826957699430959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03140028030067968</v>
+        <v>-0.02249540827078593</v>
       </c>
       <c r="C11">
-        <v>0.01085195231309543</v>
+        <v>-0.01352563208694892</v>
       </c>
       <c r="D11">
-        <v>-0.01229894115561652</v>
+        <v>0.02995502364475247</v>
       </c>
       <c r="E11">
-        <v>0.03393740445813885</v>
+        <v>-0.005503069587671911</v>
       </c>
       <c r="F11">
-        <v>-0.03885184691681989</v>
+        <v>-0.02524677675548669</v>
       </c>
       <c r="G11">
-        <v>0.02388056234213908</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03253739272384797</v>
+      </c>
+      <c r="H11">
+        <v>0.02880094234775108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03871256309840151</v>
+        <v>-0.03098854355577968</v>
       </c>
       <c r="C12">
-        <v>0.01141501240380801</v>
+        <v>-0.01336000521822063</v>
       </c>
       <c r="D12">
-        <v>-0.002561322201058995</v>
+        <v>0.03066688012699006</v>
       </c>
       <c r="E12">
-        <v>0.04715130587666055</v>
+        <v>0.004796423359225381</v>
       </c>
       <c r="F12">
-        <v>-0.02575080559507766</v>
+        <v>-0.0290137850613259</v>
       </c>
       <c r="G12">
-        <v>0.016721912640882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.007049640193086222</v>
+      </c>
+      <c r="H12">
+        <v>0.01644007299816161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0203254111050304</v>
+        <v>-0.02842058734829826</v>
       </c>
       <c r="C13">
-        <v>0.02034450653401318</v>
+        <v>0.007758445276161562</v>
       </c>
       <c r="D13">
-        <v>-0.03068168722720167</v>
+        <v>0.002210586622518685</v>
       </c>
       <c r="E13">
-        <v>0.02676968622185248</v>
+        <v>-0.01585635418741083</v>
       </c>
       <c r="F13">
-        <v>-0.08303212829403002</v>
+        <v>-0.02021355175779931</v>
       </c>
       <c r="G13">
-        <v>0.06085743746134848</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05887669358217662</v>
+      </c>
+      <c r="H13">
+        <v>0.02679551846083918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01047560143377512</v>
+        <v>-0.01549637814663142</v>
       </c>
       <c r="C14">
-        <v>0.02192455672458073</v>
+        <v>-0.003049501427359796</v>
       </c>
       <c r="D14">
-        <v>-0.001029454774053871</v>
+        <v>0.001047872293730507</v>
       </c>
       <c r="E14">
-        <v>0.03777371677953653</v>
+        <v>0.007598389994475774</v>
       </c>
       <c r="F14">
-        <v>-0.06361266087368325</v>
+        <v>-0.02603785654758683</v>
       </c>
       <c r="G14">
-        <v>0.06302318605752331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03773682048369248</v>
+      </c>
+      <c r="H14">
+        <v>-0.01797681629281487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02435118380081493</v>
+        <v>-0.02244439992626202</v>
       </c>
       <c r="C16">
-        <v>0.01184192533990775</v>
+        <v>-0.01353947703935511</v>
       </c>
       <c r="D16">
-        <v>-0.01102670239879274</v>
+        <v>0.0296965286408724</v>
       </c>
       <c r="E16">
-        <v>0.03575858027893074</v>
+        <v>-0.000726296689181958</v>
       </c>
       <c r="F16">
-        <v>-0.03911503876446096</v>
+        <v>-0.0282218135882857</v>
       </c>
       <c r="G16">
-        <v>0.02949669758169799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.0252007168152532</v>
+      </c>
+      <c r="H16">
+        <v>0.02215918590476825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0361359554167497</v>
+        <v>-0.03561004522456815</v>
       </c>
       <c r="C19">
-        <v>0.01325506092565554</v>
+        <v>-0.008236781046041799</v>
       </c>
       <c r="D19">
-        <v>-0.01783481782902965</v>
+        <v>0.008497975518550539</v>
       </c>
       <c r="E19">
-        <v>0.0418341286764646</v>
+        <v>-0.002761985613054194</v>
       </c>
       <c r="F19">
-        <v>-0.09741213528810591</v>
+        <v>-0.03154309088694342</v>
       </c>
       <c r="G19">
-        <v>0.06857304743474081</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.06288413075651696</v>
+      </c>
+      <c r="H19">
+        <v>0.04002631884592334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001796235709483517</v>
+        <v>-0.009299688813874059</v>
       </c>
       <c r="C20">
-        <v>0.0152392956739851</v>
+        <v>0.005556788796886362</v>
       </c>
       <c r="D20">
-        <v>-0.002286873292691987</v>
+        <v>0.007342204252932662</v>
       </c>
       <c r="E20">
-        <v>0.04170344810482985</v>
+        <v>0.002937505566228705</v>
       </c>
       <c r="F20">
-        <v>-0.057378986529694</v>
+        <v>-0.01752667764209094</v>
       </c>
       <c r="G20">
-        <v>0.0756354533207952</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.0449719720246428</v>
+      </c>
+      <c r="H20">
+        <v>-0.01158248978050654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.005413584835016074</v>
+        <v>-0.02193015917312366</v>
       </c>
       <c r="C21">
-        <v>-0.001409401090104262</v>
+        <v>0.002100388746477585</v>
       </c>
       <c r="D21">
-        <v>-0.006854092922338833</v>
+        <v>-0.0006211167957245183</v>
       </c>
       <c r="E21">
-        <v>0.03117493357545966</v>
+        <v>0.01164137808469542</v>
       </c>
       <c r="F21">
-        <v>-0.09076728376328612</v>
+        <v>-0.008066888823671485</v>
       </c>
       <c r="G21">
-        <v>0.02747336348100947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05446888415530076</v>
+      </c>
+      <c r="H21">
+        <v>0.0133898844562757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02643921911388922</v>
+        <v>-0.02301345036095086</v>
       </c>
       <c r="C24">
-        <v>0.01062105160265065</v>
+        <v>-0.00860925043659193</v>
       </c>
       <c r="D24">
-        <v>-0.007966357564055265</v>
+        <v>0.02748353025119114</v>
       </c>
       <c r="E24">
-        <v>0.02907481413634468</v>
+        <v>-0.0006614153678602354</v>
       </c>
       <c r="F24">
-        <v>-0.04035005703812842</v>
+        <v>-0.02267264182286378</v>
       </c>
       <c r="G24">
-        <v>0.01483557539004572</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02663328086258408</v>
+      </c>
+      <c r="H24">
+        <v>0.0298711991814372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02936522320920722</v>
+        <v>-0.03304375955552131</v>
       </c>
       <c r="C25">
-        <v>0.009857476951742236</v>
+        <v>-0.008837444306076322</v>
       </c>
       <c r="D25">
-        <v>-0.005850635792772247</v>
+        <v>0.02116671373227887</v>
       </c>
       <c r="E25">
-        <v>0.03468221972580237</v>
+        <v>-4.992678190879011e-05</v>
       </c>
       <c r="F25">
-        <v>-0.04400642584874872</v>
+        <v>-0.02750343233699329</v>
       </c>
       <c r="G25">
-        <v>0.007902198878755984</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03232359928707986</v>
+      </c>
+      <c r="H25">
+        <v>0.03253743408893995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01786230395619918</v>
+        <v>-0.02071000388742323</v>
       </c>
       <c r="C26">
-        <v>-0.0007615429513818854</v>
+        <v>0.01449583194290229</v>
       </c>
       <c r="D26">
-        <v>-0.03329181978695654</v>
+        <v>0.008072617881299975</v>
       </c>
       <c r="E26">
-        <v>0.04785935175737382</v>
+        <v>-0.006147546480884147</v>
       </c>
       <c r="F26">
-        <v>-0.06134462938052471</v>
+        <v>-0.006773102280740044</v>
       </c>
       <c r="G26">
-        <v>0.03926117327788784</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03659818351916703</v>
+      </c>
+      <c r="H26">
+        <v>0.001930411570381058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07102433848530104</v>
+        <v>-0.03169068045553879</v>
       </c>
       <c r="C27">
-        <v>0.0520019117521805</v>
+        <v>-0.01975775751913213</v>
       </c>
       <c r="D27">
-        <v>0.006230286848709765</v>
+        <v>0.001752941057708381</v>
       </c>
       <c r="E27">
-        <v>0.04907925831049706</v>
+        <v>0.003533407900996226</v>
       </c>
       <c r="F27">
-        <v>-0.06480638206382186</v>
+        <v>-0.02512795002122111</v>
       </c>
       <c r="G27">
-        <v>0.06361760532418537</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02627209340871159</v>
+      </c>
+      <c r="H27">
+        <v>-2.041434182286772e-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07586350575704696</v>
+        <v>-0.1167610024139542</v>
       </c>
       <c r="C28">
-        <v>0.07382012170364953</v>
+        <v>-0.04924001353710424</v>
       </c>
       <c r="D28">
-        <v>0.03279378619786623</v>
+        <v>-0.2141407588171072</v>
       </c>
       <c r="E28">
-        <v>-0.1889878450405324</v>
+        <v>-0.01273371072346994</v>
       </c>
       <c r="F28">
-        <v>-0.05843022623250343</v>
+        <v>0.1261851363823809</v>
       </c>
       <c r="G28">
-        <v>0.02181010185822367</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01765768982558711</v>
+      </c>
+      <c r="H28">
+        <v>-0.004507197509473476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01875781162998184</v>
+        <v>-0.02049543267408984</v>
       </c>
       <c r="C29">
-        <v>0.02253259216587325</v>
+        <v>-0.006310144808067918</v>
       </c>
       <c r="D29">
-        <v>0.003970105501943262</v>
+        <v>0.00353947966530083</v>
       </c>
       <c r="E29">
-        <v>0.05744251975327374</v>
+        <v>0.008516432068130865</v>
       </c>
       <c r="F29">
-        <v>-0.0550727667559674</v>
+        <v>-0.02872959257948338</v>
       </c>
       <c r="G29">
-        <v>0.05923200314697948</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03199460442959653</v>
+      </c>
+      <c r="H29">
+        <v>-0.01654503122921351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0767648199734212</v>
+        <v>-0.05544637794003853</v>
       </c>
       <c r="C30">
-        <v>0.05781615236056493</v>
+        <v>-0.00867748212926673</v>
       </c>
       <c r="D30">
-        <v>-0.03391302583372777</v>
+        <v>0.0434998072650641</v>
       </c>
       <c r="E30">
-        <v>0.09731937995105652</v>
+        <v>-0.03949999173383885</v>
       </c>
       <c r="F30">
-        <v>-0.07459205173212143</v>
+        <v>-0.08252313304003925</v>
       </c>
       <c r="G30">
-        <v>0.02967131627504526</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06405964406928201</v>
+      </c>
+      <c r="H30">
+        <v>0.039321747173388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05583257049256867</v>
+        <v>-0.05226927467900814</v>
       </c>
       <c r="C31">
-        <v>0.02232614746780902</v>
+        <v>-0.02579370218607378</v>
       </c>
       <c r="D31">
-        <v>-0.04563961098407981</v>
+        <v>0.01610382167575884</v>
       </c>
       <c r="E31">
-        <v>0.03137156057671198</v>
+        <v>-0.01227753034216899</v>
       </c>
       <c r="F31">
-        <v>-0.03714772996326558</v>
+        <v>-0.02175699614975879</v>
       </c>
       <c r="G31">
-        <v>0.08707695625107298</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01427266779116252</v>
+      </c>
+      <c r="H31">
+        <v>-0.01344942581515504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01266264416722933</v>
+        <v>-0.006173858335950146</v>
       </c>
       <c r="C32">
-        <v>0.02005068105313347</v>
+        <v>-0.01526052983868075</v>
       </c>
       <c r="D32">
-        <v>0.005763697805191433</v>
+        <v>-0.0008462949271825461</v>
       </c>
       <c r="E32">
-        <v>0.08150140281485205</v>
+        <v>0.01943033679311486</v>
       </c>
       <c r="F32">
-        <v>-0.07454988613441305</v>
+        <v>-0.04445722747643789</v>
       </c>
       <c r="G32">
-        <v>0.05374121521760836</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.04671686302634503</v>
+      </c>
+      <c r="H32">
+        <v>0.04451975859242642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04759610321084049</v>
+        <v>-0.03904783618549528</v>
       </c>
       <c r="C33">
-        <v>0.004292935770956316</v>
+        <v>-0.008561055479740915</v>
       </c>
       <c r="D33">
-        <v>-0.03922046078928346</v>
+        <v>0.02796136992800054</v>
       </c>
       <c r="E33">
-        <v>0.06619786810079632</v>
+        <v>-0.02397856313156141</v>
       </c>
       <c r="F33">
-        <v>-0.09328646040727473</v>
+        <v>-0.01712372256704389</v>
       </c>
       <c r="G33">
-        <v>0.05161096672640257</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05693801924765411</v>
+      </c>
+      <c r="H33">
+        <v>0.01983371029821404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02780621646661486</v>
+        <v>-0.02446341230683745</v>
       </c>
       <c r="C34">
-        <v>0.01691992912707867</v>
+        <v>-0.02232426545363425</v>
       </c>
       <c r="D34">
-        <v>-0.009098432398654382</v>
+        <v>0.02506662456954472</v>
       </c>
       <c r="E34">
-        <v>0.03718481044968859</v>
+        <v>0.003560669552741105</v>
       </c>
       <c r="F34">
-        <v>-0.04577485248293461</v>
+        <v>-0.02777295326697327</v>
       </c>
       <c r="G34">
-        <v>0.01328740504711868</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02509967052691885</v>
+      </c>
+      <c r="H34">
+        <v>0.02747142589190058</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01203118697048752</v>
+        <v>-0.01838751804941945</v>
       </c>
       <c r="C36">
-        <v>0.009827436321080511</v>
+        <v>0.001296898668085558</v>
       </c>
       <c r="D36">
-        <v>-0.0003329830994111776</v>
+        <v>-0.001163249389911131</v>
       </c>
       <c r="E36">
-        <v>0.02975237314513346</v>
+        <v>0.002650830711596137</v>
       </c>
       <c r="F36">
-        <v>-0.03308931814917743</v>
+        <v>-0.007030482273791583</v>
       </c>
       <c r="G36">
-        <v>0.03472325170369635</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.0211643642478658</v>
+      </c>
+      <c r="H36">
+        <v>-0.001145659775283972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005679470669883932</v>
+        <v>-0.01294292645069649</v>
       </c>
       <c r="C38">
-        <v>-0.00213347429382561</v>
+        <v>-0.01753558657043687</v>
       </c>
       <c r="D38">
-        <v>0.01559563918258458</v>
+        <v>-0.0004832319595848801</v>
       </c>
       <c r="E38">
-        <v>-0.006229501871460329</v>
+        <v>0.007164113523602623</v>
       </c>
       <c r="F38">
-        <v>-0.008138672747531323</v>
+        <v>-0.009685943483970134</v>
       </c>
       <c r="G38">
-        <v>-0.001149882277548623</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02423940967550603</v>
+      </c>
+      <c r="H38">
+        <v>0.01959555944940192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03658354306728576</v>
+        <v>-0.02616755879398876</v>
       </c>
       <c r="C39">
-        <v>0.02378222086530119</v>
+        <v>-0.008239626988987598</v>
       </c>
       <c r="D39">
-        <v>-0.02551445569022833</v>
+        <v>0.06082145517061556</v>
       </c>
       <c r="E39">
-        <v>0.03836347529133923</v>
+        <v>-0.006132736484403815</v>
       </c>
       <c r="F39">
-        <v>-0.05114478744371279</v>
+        <v>-0.05065820609338131</v>
       </c>
       <c r="G39">
-        <v>0.02343057828123866</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0511098995995883</v>
+      </c>
+      <c r="H39">
+        <v>0.05092316155947056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02741835094658696</v>
+        <v>-0.03007647609673873</v>
       </c>
       <c r="C40">
-        <v>0.03758088589488973</v>
+        <v>-0.007296121212895955</v>
       </c>
       <c r="D40">
-        <v>-0.04766380977857604</v>
+        <v>0.01901749205243813</v>
       </c>
       <c r="E40">
-        <v>0.04981735695719148</v>
+        <v>-0.01995453875540417</v>
       </c>
       <c r="F40">
-        <v>-0.0762157655057243</v>
+        <v>-0.03969423042412194</v>
       </c>
       <c r="G40">
-        <v>0.07868970678426904</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.03467388311770557</v>
+      </c>
+      <c r="H40">
+        <v>0.04866586871212145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.004930808444765405</v>
+        <v>-0.006861723833950553</v>
       </c>
       <c r="C41">
-        <v>-0.008285456203892524</v>
+        <v>0.0006978559881916912</v>
       </c>
       <c r="D41">
-        <v>-0.006186075263072829</v>
+        <v>-0.006046530599261821</v>
       </c>
       <c r="E41">
-        <v>0.01723946487600639</v>
+        <v>-0.001036107293331161</v>
       </c>
       <c r="F41">
-        <v>-0.01672272440542005</v>
+        <v>0.005824606917935544</v>
       </c>
       <c r="G41">
-        <v>0.05854516504450454</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.004854188968216685</v>
+      </c>
+      <c r="H41">
+        <v>-0.0163202133814807</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4112917190150011</v>
+        <v>-0.2519772591403413</v>
       </c>
       <c r="C42">
-        <v>-0.8618086514649782</v>
+        <v>0.04936833311550464</v>
       </c>
       <c r="D42">
-        <v>-0.2029736723245428</v>
+        <v>0.6112084864552031</v>
       </c>
       <c r="E42">
-        <v>-0.1187645153828452</v>
+        <v>-0.1488276178255426</v>
       </c>
       <c r="F42">
-        <v>0.02195376161961601</v>
+        <v>0.7170392226731637</v>
       </c>
       <c r="G42">
-        <v>0.0001716263977634504</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.08047939833206938</v>
+      </c>
+      <c r="H42">
+        <v>0.02353504351017379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01090489709054294</v>
+        <v>-0.004194352112100616</v>
       </c>
       <c r="C43">
-        <v>-0.004015611420455972</v>
+        <v>0.0036140454626287</v>
       </c>
       <c r="D43">
-        <v>-0.01071428397134693</v>
+        <v>-0.007479825834883901</v>
       </c>
       <c r="E43">
-        <v>0.01968993406610959</v>
+        <v>-0.004849240790960934</v>
       </c>
       <c r="F43">
-        <v>-0.03312205586125602</v>
+        <v>0.009745345178489686</v>
       </c>
       <c r="G43">
-        <v>0.05510929795545338</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01273855207900967</v>
+      </c>
+      <c r="H43">
+        <v>-0.008778911244795387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01718093546653296</v>
+        <v>-0.01174091098652119</v>
       </c>
       <c r="C44">
-        <v>0.004483754251093344</v>
+        <v>-0.001546516745299216</v>
       </c>
       <c r="D44">
-        <v>-0.01700526322844877</v>
+        <v>0.0256238568164718</v>
       </c>
       <c r="E44">
-        <v>0.06181626057543801</v>
+        <v>0.00214045907985719</v>
       </c>
       <c r="F44">
-        <v>-0.1842004939439943</v>
+        <v>-0.009722410341003769</v>
       </c>
       <c r="G44">
-        <v>0.184432082315751</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08372693930283459</v>
+      </c>
+      <c r="H44">
+        <v>0.01570824244240303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01601990830783613</v>
+        <v>-0.0210972945202534</v>
       </c>
       <c r="C46">
-        <v>0.02115502566975731</v>
+        <v>-0.00250674996830768</v>
       </c>
       <c r="D46">
-        <v>-0.01272234176979885</v>
+        <v>0.00581685988195346</v>
       </c>
       <c r="E46">
-        <v>0.05434931113125584</v>
+        <v>-0.003617622441046496</v>
       </c>
       <c r="F46">
-        <v>-0.05965762822127176</v>
+        <v>-0.03397581291828078</v>
       </c>
       <c r="G46">
-        <v>0.04643802656429519</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04722370856305633</v>
+      </c>
+      <c r="H46">
+        <v>-0.01406737438127426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09255518854952374</v>
+        <v>-0.07172439909077984</v>
       </c>
       <c r="C47">
-        <v>0.03716802614922021</v>
+        <v>-0.04625209382154514</v>
       </c>
       <c r="D47">
-        <v>-0.02436014611561657</v>
+        <v>0.0197655779775854</v>
       </c>
       <c r="E47">
-        <v>0.04985102930141003</v>
+        <v>-0.008349978994910566</v>
       </c>
       <c r="F47">
-        <v>-0.001767059225624585</v>
+        <v>-0.03366667496151558</v>
       </c>
       <c r="G47">
-        <v>0.07716198451760398</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01749354164856862</v>
+      </c>
+      <c r="H47">
+        <v>-0.02829757788583024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.007046116984658618</v>
+        <v>-0.01622901028000769</v>
       </c>
       <c r="C48">
-        <v>0.00517393498023506</v>
+        <v>-0.00832440291816775</v>
       </c>
       <c r="D48">
-        <v>-0.01118460777309333</v>
+        <v>0.004660279256327922</v>
       </c>
       <c r="E48">
-        <v>0.04436234071337158</v>
+        <v>-0.001369338659182938</v>
       </c>
       <c r="F48">
-        <v>-0.0497373836286732</v>
+        <v>-0.01250322921013225</v>
       </c>
       <c r="G48">
-        <v>0.01251430196077195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02695998682650802</v>
+      </c>
+      <c r="H48">
+        <v>0.004418968386182466</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08518709729200503</v>
+        <v>-0.06567398243185968</v>
       </c>
       <c r="C50">
-        <v>0.02296993438793134</v>
+        <v>-0.03954835548171157</v>
       </c>
       <c r="D50">
-        <v>-0.03671311590240823</v>
+        <v>0.03467301590583385</v>
       </c>
       <c r="E50">
-        <v>0.05483339257775487</v>
+        <v>0.004632803569903553</v>
       </c>
       <c r="F50">
-        <v>-0.02897431044908056</v>
+        <v>-0.0335186532206796</v>
       </c>
       <c r="G50">
-        <v>0.01735393987693768</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01595704742758696</v>
+      </c>
+      <c r="H50">
+        <v>-0.02448789126591224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03884359600304596</v>
+        <v>-0.02622846353858415</v>
       </c>
       <c r="C51">
-        <v>-4.777147546638248e-06</v>
+        <v>-0.005695342291787382</v>
       </c>
       <c r="D51">
-        <v>-0.04404832671662184</v>
+        <v>-0.002470216503877196</v>
       </c>
       <c r="E51">
-        <v>0.01925527551106965</v>
+        <v>-0.01341559772841777</v>
       </c>
       <c r="F51">
-        <v>-0.1545228979160305</v>
+        <v>0.01708685030899682</v>
       </c>
       <c r="G51">
-        <v>0.07625738552556634</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.08095235803342718</v>
+      </c>
+      <c r="H51">
+        <v>0.02620499719477204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1031787935998449</v>
+        <v>-0.09212443793336074</v>
       </c>
       <c r="C53">
-        <v>0.04985152857657799</v>
+        <v>-0.05866475857751437</v>
       </c>
       <c r="D53">
-        <v>-0.03987056564677872</v>
+        <v>0.04326150442869221</v>
       </c>
       <c r="E53">
-        <v>0.06635893391282137</v>
+        <v>-0.007515154748139312</v>
       </c>
       <c r="F53">
-        <v>0.0567251555049489</v>
+        <v>-0.06837610775396741</v>
       </c>
       <c r="G53">
-        <v>0.03351488706865215</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05959469307215139</v>
+      </c>
+      <c r="H53">
+        <v>-0.03280401812070633</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02055210106010723</v>
+        <v>-0.02194532780068535</v>
       </c>
       <c r="C54">
-        <v>0.03866082576226739</v>
+        <v>-0.0177651610389413</v>
       </c>
       <c r="D54">
-        <v>-0.002108351555151001</v>
+        <v>-0.02316894198521353</v>
       </c>
       <c r="E54">
-        <v>0.03306190551142334</v>
+        <v>0.003617425780658986</v>
       </c>
       <c r="F54">
-        <v>-0.07006351997144851</v>
+        <v>-0.012075512539924</v>
       </c>
       <c r="G54">
-        <v>0.06470596838926733</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.04005336535373173</v>
+      </c>
+      <c r="H54">
+        <v>-0.02025360205378645</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1022220000534286</v>
+        <v>-0.07985907158065707</v>
       </c>
       <c r="C55">
-        <v>0.03592876269381425</v>
+        <v>-0.05183806448268426</v>
       </c>
       <c r="D55">
-        <v>0.004069584129085537</v>
+        <v>0.04368507301476374</v>
       </c>
       <c r="E55">
-        <v>0.06458002139371997</v>
+        <v>0.005454054576172965</v>
       </c>
       <c r="F55">
-        <v>0.0569922174135738</v>
+        <v>-0.05790378496902045</v>
       </c>
       <c r="G55">
-        <v>0.05265672973074965</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03880717058666011</v>
+      </c>
+      <c r="H55">
+        <v>-0.05002654562653808</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.140008824721812</v>
+        <v>-0.1195243124806505</v>
       </c>
       <c r="C56">
-        <v>0.07699406391441087</v>
+        <v>-0.08317164810172831</v>
       </c>
       <c r="D56">
-        <v>-0.02315648875612712</v>
+        <v>0.05593030640274527</v>
       </c>
       <c r="E56">
-        <v>0.08431613259823052</v>
+        <v>-0.003070024082674949</v>
       </c>
       <c r="F56">
-        <v>0.1583587294817865</v>
+        <v>-0.09538005710640124</v>
       </c>
       <c r="G56">
-        <v>0.01430686599269284</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1035129915917299</v>
+      </c>
+      <c r="H56">
+        <v>-0.0240899275491928</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03913054953098599</v>
+        <v>-0.04211115176503774</v>
       </c>
       <c r="C57">
-        <v>0.01745067895773217</v>
+        <v>0.001393897966943146</v>
       </c>
       <c r="D57">
-        <v>-0.02746220935996688</v>
+        <v>0.01753554763142472</v>
       </c>
       <c r="E57">
-        <v>0.02268808475164264</v>
+        <v>-0.01259422162865724</v>
       </c>
       <c r="F57">
-        <v>-0.07625270761291131</v>
+        <v>-0.02741054572154381</v>
       </c>
       <c r="G57">
-        <v>0.03465803712552384</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06556472226249514</v>
+      </c>
+      <c r="H57">
+        <v>0.01153666059817239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.20363230892111</v>
+        <v>-0.1538098262129531</v>
       </c>
       <c r="C58">
-        <v>0.07020272305337495</v>
+        <v>-0.08037814955507887</v>
       </c>
       <c r="D58">
-        <v>-0.1046737602679604</v>
+        <v>0.107587821260611</v>
       </c>
       <c r="E58">
-        <v>0.1927923992144588</v>
+        <v>-0.1282487264554417</v>
       </c>
       <c r="F58">
-        <v>-0.3124640633290952</v>
+        <v>-0.0725879271075833</v>
       </c>
       <c r="G58">
-        <v>-0.3468681508108549</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6707669564115079</v>
+      </c>
+      <c r="H58">
+        <v>-0.5741973155693343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07526063166904541</v>
+        <v>-0.1180309741866068</v>
       </c>
       <c r="C59">
-        <v>0.09579812512197</v>
+        <v>-0.05679206724210852</v>
       </c>
       <c r="D59">
-        <v>0.02937675800320998</v>
+        <v>-0.2092662885902133</v>
       </c>
       <c r="E59">
-        <v>-0.1454069086268805</v>
+        <v>-0.02670641168065122</v>
       </c>
       <c r="F59">
-        <v>-0.057076929799217</v>
+        <v>0.1024481846004228</v>
       </c>
       <c r="G59">
-        <v>0.01294275074613021</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02703339631264175</v>
+      </c>
+      <c r="H59">
+        <v>0.02552406239313454</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1627637982435972</v>
+        <v>-0.1608694944729784</v>
       </c>
       <c r="C60">
-        <v>0.07884981617226693</v>
+        <v>-0.07195161423271629</v>
       </c>
       <c r="D60">
-        <v>-0.06142841897633037</v>
+        <v>-0.005237186714455698</v>
       </c>
       <c r="E60">
-        <v>0.02022229832582106</v>
+        <v>-0.05577277522544741</v>
       </c>
       <c r="F60">
-        <v>-0.1062486231627306</v>
+        <v>-0.06984144378685847</v>
       </c>
       <c r="G60">
-        <v>-0.2726827751669276</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1373998075921305</v>
+      </c>
+      <c r="H60">
+        <v>0.359938817122041</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01930875245792293</v>
+        <v>-0.02228917402462082</v>
       </c>
       <c r="C61">
-        <v>0.01086768365447601</v>
+        <v>-0.0116546221226012</v>
       </c>
       <c r="D61">
-        <v>-0.003617867669072805</v>
+        <v>0.03181904878020933</v>
       </c>
       <c r="E61">
-        <v>0.02132196660136044</v>
+        <v>0.0006824750006841949</v>
       </c>
       <c r="F61">
-        <v>-0.04328285380297667</v>
+        <v>-0.03512398266326248</v>
       </c>
       <c r="G61">
-        <v>0.008626575565604056</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03274516123142077</v>
+      </c>
+      <c r="H61">
+        <v>0.03824815828333539</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01688126937507937</v>
+        <v>-0.01438733069825658</v>
       </c>
       <c r="C63">
-        <v>0.01583187615475972</v>
+        <v>-0.001728217541906492</v>
       </c>
       <c r="D63">
-        <v>-0.01198376046607894</v>
+        <v>0.005192202410848798</v>
       </c>
       <c r="E63">
-        <v>0.04590573159437088</v>
+        <v>0.001080801247991563</v>
       </c>
       <c r="F63">
-        <v>-0.01970190794008086</v>
+        <v>-0.02190255972721095</v>
       </c>
       <c r="G63">
-        <v>0.03545137340117272</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01734308920090838</v>
+      </c>
+      <c r="H63">
+        <v>-0.007966430710804428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02862622927885851</v>
+        <v>-0.03794673011011217</v>
       </c>
       <c r="C64">
-        <v>0.02081076794894867</v>
+        <v>-0.01836908660282219</v>
       </c>
       <c r="D64">
-        <v>0.0201000892626092</v>
+        <v>0.02765363502789331</v>
       </c>
       <c r="E64">
-        <v>0.04653396343922414</v>
+        <v>0.01111819446463085</v>
       </c>
       <c r="F64">
-        <v>-0.02357221295114154</v>
+        <v>-0.03234989545209446</v>
       </c>
       <c r="G64">
-        <v>0.06722688675112969</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.008480881270659497</v>
+      </c>
+      <c r="H64">
+        <v>0.03183064911942285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01002800892948053</v>
+        <v>-0.03621522046889504</v>
       </c>
       <c r="C65">
-        <v>-0.0002297887797994421</v>
+        <v>-0.004141486336879714</v>
       </c>
       <c r="D65">
-        <v>-0.008747351297189759</v>
+        <v>0.03425291072146822</v>
       </c>
       <c r="E65">
-        <v>0.003543136675577419</v>
+        <v>0.002801585224716312</v>
       </c>
       <c r="F65">
-        <v>-0.009288155963755044</v>
+        <v>-0.03990093929022465</v>
       </c>
       <c r="G65">
-        <v>-0.01719862316453177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.002127678345603283</v>
+      </c>
+      <c r="H65">
+        <v>0.05982831310074035</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03498812644561502</v>
+        <v>-0.03194270659646817</v>
       </c>
       <c r="C66">
-        <v>0.02640839585378086</v>
+        <v>-0.01467209454666865</v>
       </c>
       <c r="D66">
-        <v>-0.01936119641021255</v>
+        <v>0.0652262571723273</v>
       </c>
       <c r="E66">
-        <v>0.04391089709507829</v>
+        <v>-0.0117253436969255</v>
       </c>
       <c r="F66">
-        <v>-0.04652741777317593</v>
+        <v>-0.07064240199788928</v>
       </c>
       <c r="G66">
-        <v>0.01142125197379055</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04255057645140637</v>
+      </c>
+      <c r="H66">
+        <v>0.06291493489198584</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02510715203263498</v>
+        <v>-0.03155296637623214</v>
       </c>
       <c r="C67">
-        <v>0.009930738286785618</v>
+        <v>-0.02448566835879371</v>
       </c>
       <c r="D67">
-        <v>0.01552038903082809</v>
+        <v>-0.009992445802059798</v>
       </c>
       <c r="E67">
-        <v>-0.03075559633453108</v>
+        <v>0.003194349286131488</v>
       </c>
       <c r="F67">
-        <v>-0.0186282452568548</v>
+        <v>-0.01111156641711924</v>
       </c>
       <c r="G67">
-        <v>-0.002034914972479879</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01546671891109869</v>
+      </c>
+      <c r="H67">
+        <v>0.0331425762181886</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.0871751182039939</v>
+        <v>-0.1214105307606016</v>
       </c>
       <c r="C68">
-        <v>0.07957183515215832</v>
+        <v>-0.03532591320408994</v>
       </c>
       <c r="D68">
-        <v>0.04221613801899598</v>
+        <v>-0.1965800086637696</v>
       </c>
       <c r="E68">
-        <v>-0.1810439837352183</v>
+        <v>-0.02253371633125522</v>
       </c>
       <c r="F68">
-        <v>-0.007078651335581602</v>
+        <v>0.1201719981907266</v>
       </c>
       <c r="G68">
-        <v>-0.04571367040722961</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01379099641495529</v>
+      </c>
+      <c r="H68">
+        <v>-0.04921047373421775</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07050590819165321</v>
+        <v>-0.05523503699031074</v>
       </c>
       <c r="C69">
-        <v>0.0374697817513854</v>
+        <v>-0.04083588934768544</v>
       </c>
       <c r="D69">
-        <v>-0.02625976654020199</v>
+        <v>0.01657710813832243</v>
       </c>
       <c r="E69">
-        <v>0.01183390221211743</v>
+        <v>-0.008615068162233307</v>
       </c>
       <c r="F69">
-        <v>-0.01922279515672363</v>
+        <v>-0.03252517902801463</v>
       </c>
       <c r="G69">
-        <v>0.06181993881861711</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.005530914922136419</v>
+      </c>
+      <c r="H69">
+        <v>-0.008572438614500667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09998967802487795</v>
+        <v>-0.1166992421944381</v>
       </c>
       <c r="C71">
-        <v>0.0834745396505665</v>
+        <v>-0.04356515814617097</v>
       </c>
       <c r="D71">
-        <v>0.01761256141145136</v>
+        <v>-0.1857109652518763</v>
       </c>
       <c r="E71">
-        <v>-0.2313265101172392</v>
+        <v>-0.02610796511519187</v>
       </c>
       <c r="F71">
-        <v>-0.03896049696688228</v>
+        <v>0.128599970207798</v>
       </c>
       <c r="G71">
-        <v>0.009906423891779668</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01972074789893901</v>
+      </c>
+      <c r="H71">
+        <v>-0.02115624804024487</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1066408366579451</v>
+        <v>-0.08479156566381905</v>
       </c>
       <c r="C72">
-        <v>0.1195136971572404</v>
+        <v>-0.06357013227264169</v>
       </c>
       <c r="D72">
-        <v>-0.01812585901507185</v>
+        <v>0.04890422766882855</v>
       </c>
       <c r="E72">
-        <v>0.09967144089647956</v>
+        <v>-0.01411475021748341</v>
       </c>
       <c r="F72">
-        <v>-0.08500762276236074</v>
+        <v>-0.1298803427067455</v>
       </c>
       <c r="G72">
-        <v>-0.1294807055409693</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09372423000924057</v>
+      </c>
+      <c r="H72">
+        <v>0.1350320836453639</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2412427777729022</v>
+        <v>-0.2298325506937397</v>
       </c>
       <c r="C73">
-        <v>0.1143904367077836</v>
+        <v>-0.09726984926512887</v>
       </c>
       <c r="D73">
-        <v>-0.0617127464216981</v>
+        <v>0.016804028451308</v>
       </c>
       <c r="E73">
-        <v>-0.0286276978900174</v>
+        <v>-0.09143912004326066</v>
       </c>
       <c r="F73">
-        <v>-0.2256467294095457</v>
+        <v>-0.08047331215737362</v>
       </c>
       <c r="G73">
-        <v>-0.4261273343436106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.209282013384206</v>
+      </c>
+      <c r="H73">
+        <v>0.5063990767605903</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1220801931009526</v>
+        <v>-0.1070170235488551</v>
       </c>
       <c r="C74">
-        <v>0.04197299417932032</v>
+        <v>-0.07384819603532193</v>
       </c>
       <c r="D74">
-        <v>-0.02641492313130644</v>
+        <v>0.05585761630826779</v>
       </c>
       <c r="E74">
-        <v>0.04718590521631919</v>
+        <v>-0.009331018346680677</v>
       </c>
       <c r="F74">
-        <v>0.1114750688545138</v>
+        <v>-0.07775620312063994</v>
       </c>
       <c r="G74">
-        <v>0.01799785097687115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.08715841893240847</v>
+      </c>
+      <c r="H74">
+        <v>-0.001374513708372636</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2156280976619952</v>
+        <v>-0.2142819628750116</v>
       </c>
       <c r="C75">
-        <v>0.1187004440347047</v>
+        <v>-0.1497347634483617</v>
       </c>
       <c r="D75">
-        <v>-0.0641826688010578</v>
+        <v>0.06532241950736234</v>
       </c>
       <c r="E75">
-        <v>0.09411189590935072</v>
+        <v>-0.03405610810071753</v>
       </c>
       <c r="F75">
-        <v>0.1798210990774188</v>
+        <v>-0.1493165106608405</v>
       </c>
       <c r="G75">
-        <v>0.07449474842705252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1627723843218565</v>
+      </c>
+      <c r="H75">
+        <v>-0.08332665000868957</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2565785256337414</v>
+        <v>-0.2021484437871803</v>
       </c>
       <c r="C76">
-        <v>0.1336842988221828</v>
+        <v>-0.1457613112613123</v>
       </c>
       <c r="D76">
-        <v>-0.01004304429148456</v>
+        <v>0.06919409389069726</v>
       </c>
       <c r="E76">
-        <v>0.08187316494250478</v>
+        <v>0.007128251066753808</v>
       </c>
       <c r="F76">
-        <v>0.2047806508848446</v>
+        <v>-0.1563994768572582</v>
       </c>
       <c r="G76">
-        <v>0.08478833774583137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1796406773561359</v>
+      </c>
+      <c r="H76">
+        <v>-0.09242653143673886</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.131681721627062</v>
+        <v>-0.07512063528702717</v>
       </c>
       <c r="C77">
-        <v>-0.02050631279092464</v>
+        <v>-0.02496334978517608</v>
       </c>
       <c r="D77">
-        <v>-0.05915768010384067</v>
+        <v>0.07719078784638791</v>
       </c>
       <c r="E77">
-        <v>0.08566505750109159</v>
+        <v>-0.01613779882798655</v>
       </c>
       <c r="F77">
-        <v>-0.1948965319034705</v>
+        <v>-0.007029763194709865</v>
       </c>
       <c r="G77">
-        <v>0.1202870394369173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1130040503468773</v>
+      </c>
+      <c r="H77">
+        <v>-0.06265142816234937</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0487581680390633</v>
+        <v>-0.03565020116081873</v>
       </c>
       <c r="C78">
-        <v>0.01050902411495532</v>
+        <v>-0.01760097893771624</v>
       </c>
       <c r="D78">
-        <v>-0.02658256987404918</v>
+        <v>0.0504863496150916</v>
       </c>
       <c r="E78">
-        <v>0.1030822683428404</v>
+        <v>0.0006155986899477955</v>
       </c>
       <c r="F78">
-        <v>-0.03295069673960338</v>
+        <v>-0.05136101218669967</v>
       </c>
       <c r="G78">
-        <v>0.05833358509307655</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.0464027213608862</v>
+      </c>
+      <c r="H78">
+        <v>0.03142296382965893</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.211833751388413</v>
+        <v>-0.174956726724971</v>
       </c>
       <c r="C80">
-        <v>-0.1566501055698699</v>
+        <v>-0.09075169294997878</v>
       </c>
       <c r="D80">
-        <v>0.9304964231843662</v>
+        <v>0.06310394396287802</v>
       </c>
       <c r="E80">
-        <v>0.2010190314030406</v>
+        <v>0.9578465386934497</v>
       </c>
       <c r="F80">
-        <v>-0.04525567344550123</v>
+        <v>0.1084224940953913</v>
       </c>
       <c r="G80">
-        <v>-0.04277912134627752</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1044043938736436</v>
+      </c>
+      <c r="H80">
+        <v>0.005569037987245732</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1529787064863718</v>
+        <v>-0.1452924725236246</v>
       </c>
       <c r="C81">
-        <v>0.1059844748081114</v>
+        <v>-0.1016402400721558</v>
       </c>
       <c r="D81">
-        <v>-0.01945191973793581</v>
+        <v>0.04052429329189473</v>
       </c>
       <c r="E81">
-        <v>0.07447558077963716</v>
+        <v>-0.007443508997521865</v>
       </c>
       <c r="F81">
-        <v>0.1807760374257473</v>
+        <v>-0.1088715851746393</v>
       </c>
       <c r="G81">
-        <v>0.006696740412942976</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1136348714859755</v>
+      </c>
+      <c r="H81">
+        <v>-0.06799369449696802</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04999972382739579</v>
+        <v>-0.03783381740572517</v>
       </c>
       <c r="C83">
-        <v>-0.01085973912969494</v>
+        <v>-0.01527142131972255</v>
       </c>
       <c r="D83">
-        <v>-0.03617861899283899</v>
+        <v>0.02049367125540364</v>
       </c>
       <c r="E83">
-        <v>0.04118756084780987</v>
+        <v>-0.01398648880571466</v>
       </c>
       <c r="F83">
-        <v>-0.07269270011156015</v>
+        <v>-0.01330084478362233</v>
       </c>
       <c r="G83">
-        <v>0.06635486134364017</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05321578570648711</v>
+      </c>
+      <c r="H83">
+        <v>0.01998266892583197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2246776753019316</v>
+        <v>-0.2044921568960185</v>
       </c>
       <c r="C85">
-        <v>0.1017554761963129</v>
+        <v>-0.1294930209983383</v>
       </c>
       <c r="D85">
-        <v>-0.03557324520154823</v>
+        <v>0.08684681160772459</v>
       </c>
       <c r="E85">
-        <v>0.06718305276415208</v>
+        <v>-0.02298454183089869</v>
       </c>
       <c r="F85">
-        <v>0.2010352058615019</v>
+        <v>-0.1412937331127598</v>
       </c>
       <c r="G85">
-        <v>0.06536055432651292</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1691502314435732</v>
+      </c>
+      <c r="H85">
+        <v>-0.06049532425027286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.004041804560851377</v>
+        <v>-0.01086855461472789</v>
       </c>
       <c r="C86">
-        <v>-0.00761026615000963</v>
+        <v>0.0007497743466344249</v>
       </c>
       <c r="D86">
-        <v>-0.000111986776617349</v>
+        <v>0.01277297893167525</v>
       </c>
       <c r="E86">
-        <v>0.07112585112487005</v>
+        <v>-0.006363086764768348</v>
       </c>
       <c r="F86">
-        <v>-0.07430926795706358</v>
+        <v>-0.00777249146775002</v>
       </c>
       <c r="G86">
-        <v>0.05522210194326332</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.07256350828003699</v>
+      </c>
+      <c r="H86">
+        <v>0.03879170490053867</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02750309090852724</v>
+        <v>-0.02545018212768275</v>
       </c>
       <c r="C87">
-        <v>0.009047697894260732</v>
+        <v>-0.007651710321717972</v>
       </c>
       <c r="D87">
-        <v>-0.007169736691179571</v>
+        <v>0.02434136285261509</v>
       </c>
       <c r="E87">
-        <v>0.03884833538844886</v>
+        <v>-0.001951374265767952</v>
       </c>
       <c r="F87">
-        <v>-0.06435646277019585</v>
+        <v>-0.02891382901963801</v>
       </c>
       <c r="G87">
-        <v>0.01350301459386127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08542172023695249</v>
+      </c>
+      <c r="H87">
+        <v>0.02732064728888979</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.006895193435827357</v>
+        <v>-0.03970783218520787</v>
       </c>
       <c r="C88">
-        <v>0.02128359838003573</v>
+        <v>0.002400802976305557</v>
       </c>
       <c r="D88">
-        <v>0.02138186317331287</v>
+        <v>-0.01010066658049317</v>
       </c>
       <c r="E88">
-        <v>-0.003862357913805744</v>
+        <v>0.005925208429117124</v>
       </c>
       <c r="F88">
-        <v>-0.03060529205122243</v>
+        <v>-0.01067308824012277</v>
       </c>
       <c r="G88">
-        <v>0.08910106721379742</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.005125877587654519</v>
+      </c>
+      <c r="H88">
+        <v>0.01552591108180337</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1194723219429523</v>
+        <v>-0.1885082251944839</v>
       </c>
       <c r="C89">
-        <v>0.09952869171386391</v>
+        <v>-0.06598242702521867</v>
       </c>
       <c r="D89">
-        <v>0.02146682149463327</v>
+        <v>-0.3285471106943139</v>
       </c>
       <c r="E89">
-        <v>-0.3132004894477614</v>
+        <v>-0.05937304393936263</v>
       </c>
       <c r="F89">
-        <v>-0.09010572388898018</v>
+        <v>0.1933681448344223</v>
       </c>
       <c r="G89">
-        <v>0.03707655009518184</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01044184342398363</v>
+      </c>
+      <c r="H89">
+        <v>-0.01723502821797209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1128523499480861</v>
+        <v>-0.1466131547330383</v>
       </c>
       <c r="C90">
-        <v>0.1012264805349084</v>
+        <v>-0.05157821141652857</v>
       </c>
       <c r="D90">
-        <v>0.07577675587322938</v>
+        <v>-0.2812544269506264</v>
       </c>
       <c r="E90">
-        <v>-0.2835508499197584</v>
+        <v>-0.03138433005074636</v>
       </c>
       <c r="F90">
-        <v>-0.05609753266292743</v>
+        <v>0.1787980448508884</v>
       </c>
       <c r="G90">
-        <v>-0.01977449325599782</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02634291031404057</v>
+      </c>
+      <c r="H90">
+        <v>-0.04009615131873924</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.284155266486092</v>
+        <v>-0.2246091123238792</v>
       </c>
       <c r="C91">
-        <v>0.1072235601479868</v>
+        <v>-0.1542138304358628</v>
       </c>
       <c r="D91">
-        <v>-0.06106197807475174</v>
+        <v>0.08009107834446709</v>
       </c>
       <c r="E91">
-        <v>0.05910318077907739</v>
+        <v>-0.02839588147621321</v>
       </c>
       <c r="F91">
-        <v>0.2475023565322668</v>
+        <v>-0.1455577443618246</v>
       </c>
       <c r="G91">
-        <v>0.02036299327656179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2183947564936128</v>
+      </c>
+      <c r="H91">
+        <v>-0.112829152940784</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1836100707358219</v>
+        <v>-0.2057228279435851</v>
       </c>
       <c r="C92">
-        <v>0.09631861176381962</v>
+        <v>-0.1345904438345547</v>
       </c>
       <c r="D92">
-        <v>0.09704479105648815</v>
+        <v>-0.24619207052163</v>
       </c>
       <c r="E92">
-        <v>-0.4343772730429926</v>
+        <v>-0.02164784360936408</v>
       </c>
       <c r="F92">
-        <v>-0.107094128003966</v>
+        <v>0.1517381094413587</v>
       </c>
       <c r="G92">
-        <v>0.3447679446076893</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.03802717136999832</v>
+      </c>
+      <c r="H92">
+        <v>-0.1334206475005245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1229066692816941</v>
+        <v>-0.1674196802945735</v>
       </c>
       <c r="C93">
-        <v>0.08655918930435447</v>
+        <v>-0.06597251786840336</v>
       </c>
       <c r="D93">
-        <v>0.08199877498763325</v>
+        <v>-0.3035092594449021</v>
       </c>
       <c r="E93">
-        <v>-0.3979310963675611</v>
+        <v>-0.04764967253894734</v>
       </c>
       <c r="F93">
-        <v>-0.008510731461826323</v>
+        <v>0.2195612848834621</v>
       </c>
       <c r="G93">
-        <v>-0.03638238314914139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03000314281091153</v>
+      </c>
+      <c r="H93">
+        <v>0.01601235708255731</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2590236304600831</v>
+        <v>-0.2453633514181838</v>
       </c>
       <c r="C94">
-        <v>0.1349312733709226</v>
+        <v>-0.147311567353186</v>
       </c>
       <c r="D94">
-        <v>-0.02845809128329186</v>
+        <v>0.05784592903062174</v>
       </c>
       <c r="E94">
-        <v>0.08675072043238163</v>
+        <v>-0.04190953344782635</v>
       </c>
       <c r="F94">
-        <v>0.297271478097845</v>
+        <v>-0.164393694119641</v>
       </c>
       <c r="G94">
-        <v>-0.005911749695112502</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2340954660667366</v>
+      </c>
+      <c r="H94">
+        <v>-0.1265190069433747</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08638414650064118</v>
+        <v>-0.06513582009157406</v>
       </c>
       <c r="C95">
-        <v>0.02226621448888669</v>
+        <v>-0.04753787723949919</v>
       </c>
       <c r="D95">
-        <v>-0.06762053240322759</v>
+        <v>0.06725479149281487</v>
       </c>
       <c r="E95">
-        <v>0.08545430677666628</v>
+        <v>-0.07787133656821886</v>
       </c>
       <c r="F95">
-        <v>-0.04777989288612967</v>
+        <v>-0.03490864337685458</v>
       </c>
       <c r="G95">
-        <v>0.346097913216466</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06040514330610996</v>
+      </c>
+      <c r="H95">
+        <v>0.01197904401100975</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.179820554402263</v>
+        <v>-0.1635938840861404</v>
       </c>
       <c r="C98">
-        <v>0.06175401635767869</v>
+        <v>-0.1027725244211813</v>
       </c>
       <c r="D98">
-        <v>-0.04607403143810253</v>
+        <v>0.00454011643460354</v>
       </c>
       <c r="E98">
-        <v>-0.07477959818413726</v>
+        <v>-0.06143230962617213</v>
       </c>
       <c r="F98">
-        <v>-0.09420021199147695</v>
+        <v>-0.03070931654467129</v>
       </c>
       <c r="G98">
-        <v>-0.2759619901118238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1730377523181739</v>
+      </c>
+      <c r="H98">
+        <v>0.3606783064388764</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002389579253712145</v>
+        <v>-0.01382804134874486</v>
       </c>
       <c r="C101">
-        <v>0.02706525093144558</v>
+        <v>-0.002897858279936656</v>
       </c>
       <c r="D101">
-        <v>-0.009241733875631318</v>
+        <v>0.004945609483621158</v>
       </c>
       <c r="E101">
-        <v>0.11727689743873</v>
+        <v>0.003910239938033474</v>
       </c>
       <c r="F101">
-        <v>-0.1872183290369308</v>
+        <v>-0.03672542686731717</v>
       </c>
       <c r="G101">
-        <v>-0.02000603443433632</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09382457807339105</v>
+      </c>
+      <c r="H101">
+        <v>-0.0702822271281765</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.0956608085519579</v>
+        <v>-0.1055250584328952</v>
       </c>
       <c r="C102">
-        <v>0.02846540579991172</v>
+        <v>-0.05874712080045989</v>
       </c>
       <c r="D102">
-        <v>-0.01386405218736713</v>
+        <v>0.04470552726949901</v>
       </c>
       <c r="E102">
-        <v>0.08392187322711636</v>
+        <v>-0.005234140981423714</v>
       </c>
       <c r="F102">
-        <v>0.1401123750003025</v>
+        <v>-0.07395075455159644</v>
       </c>
       <c r="G102">
-        <v>0.07810440665490487</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.1024245226357506</v>
+      </c>
+      <c r="H102">
+        <v>-0.05629576582253851</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02606088847488821</v>
+        <v>-0.02217994899730252</v>
       </c>
       <c r="C103">
-        <v>0.009775614012312658</v>
+        <v>-0.01345264577451714</v>
       </c>
       <c r="D103">
-        <v>-0.009017600429715552</v>
+        <v>0.0126818293304079</v>
       </c>
       <c r="E103">
-        <v>0.01794549655994172</v>
+        <v>0.005744018662876204</v>
       </c>
       <c r="F103">
-        <v>0.02627792946320381</v>
+        <v>-0.01861757851528717</v>
       </c>
       <c r="G103">
-        <v>0.03403380311520728</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0104946224683327</v>
+      </c>
+      <c r="H103">
+        <v>-0.00841256048728883</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.4464883521774171</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8717411966993587</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.06338280328311516</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02649215077155923</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1564663282100668</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.04020716027891921</v>
+      </c>
+      <c r="H104">
+        <v>-0.03250570735057697</v>
       </c>
     </row>
   </sheetData>
